--- a/biology/Botanique/Forêt_tempérée_humide/Forêt_tempérée_humide.xlsx
+++ b/biology/Botanique/Forêt_tempérée_humide/Forêt_tempérée_humide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_temp%C3%A9r%C3%A9e_humide</t>
+          <t>Forêt_tempérée_humide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt tempérée humide, dites aussi forêt tempérée ombrophile est un type de forêt tempérée sempervirente. Composée de conifères ou de feuillus ombrophiles, on la trouve aux latitudes tempérées, dans des zones où les précipitations sont abondantes.
 La plupart de ces forêts se trouvent dans des climats océaniques humides :
